--- a/biology/Histoire de la zoologie et de la botanique/Christian_Guth/Christian_Guth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Guth/Christian_Guth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Guth, né à Deux-Ponts (Royaume de Bavière) le 16 mai 1908 et mort à Poitiers le 23 novembre 1994[1] est un paléontologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Guth, né à Deux-Ponts (Royaume de Bavière) le 16 mai 1908 et mort à Poitiers le 23 novembre 1994 est un paléontologue français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Guth est le fils de Christian Guth (1879-1952) et d'Élise Oesch. 
-Il est docteur ès sciences (sciences de la nature) de la faculté des sciences de Paris en 1958[2]. Ancien assistant de Jean Piveteau à la faculté des sciences de Paris, il a été Professeur à l'Université de Poitiers.
+Il est docteur ès sciences (sciences de la nature) de la faculté des sciences de Paris en 1958. Ancien assistant de Jean Piveteau à la faculté des sciences de Paris, il a été Professeur à l'Université de Poitiers.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La région temporale des édentés, 1958
-[Thèse : Sciences naturelles : Paris : 1958][2]
-Édition commerciale publiée au Puy en 1961[2]
+[Thèse : Sciences naturelles : Paris : 1958]
+Édition commerciale publiée au Puy en 1961
 « Les fouilles paléontologiques de Chilhac (Haute-Loire) », Almanach de Brioude, Brioude,‎ 1981
 (1974) - « Découverte dans le Villafranchien d'Auvergne de galets aménagés », Compte Rendu de l'Académie des Sciences, Paris, 279, pp. 1071-1072.
 avec Chavaillon, J. (1985) - « Découverte, en 1984, de nouveaux outils paléolithiques à Chilhac III (Haute-Loire) », Bulletin de la Société préhistorique française, t. 82, pp. 56-64.</t>
